--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H2">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I2">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J2">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N2">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O2">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P2">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q2">
-        <v>20.19651361549555</v>
+        <v>20.2048708499</v>
       </c>
       <c r="R2">
-        <v>181.76862253946</v>
+        <v>181.8438376491</v>
       </c>
       <c r="S2">
-        <v>0.008150076386101964</v>
+        <v>0.006290679902664085</v>
       </c>
       <c r="T2">
-        <v>0.008794618343314981</v>
+        <v>0.0066655536938002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H3">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I3">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J3">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P3">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q3">
-        <v>22.03792257353866</v>
+        <v>21.37702288106</v>
       </c>
       <c r="R3">
-        <v>198.341303161848</v>
+        <v>192.39320592954</v>
       </c>
       <c r="S3">
-        <v>0.008893156303350124</v>
+        <v>0.006655623251229047</v>
       </c>
       <c r="T3">
-        <v>0.009596464112751415</v>
+        <v>0.007052244722861274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H4">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I4">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J4">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N4">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O4">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P4">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q4">
-        <v>152.438675766564</v>
+        <v>199.69693134633</v>
       </c>
       <c r="R4">
-        <v>1371.948081899076</v>
+        <v>1797.27238211697</v>
       </c>
       <c r="S4">
-        <v>0.06151491665078864</v>
+        <v>0.06217458562227162</v>
       </c>
       <c r="T4">
-        <v>0.06637977225429031</v>
+        <v>0.06587968951965277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H5">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I5">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J5">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N5">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O5">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P5">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q5">
-        <v>3.315708994891333</v>
+        <v>7.489130773354999</v>
       </c>
       <c r="R5">
-        <v>19.894253969348</v>
+        <v>44.93478464013</v>
       </c>
       <c r="S5">
-        <v>0.001338017149737983</v>
+        <v>0.002331701340451805</v>
       </c>
       <c r="T5">
-        <v>0.0009625554094046805</v>
+        <v>0.001647101290922505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H6">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I6">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J6">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N6">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O6">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P6">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q6">
-        <v>158.4281322063342</v>
+        <v>183.8556350398167</v>
       </c>
       <c r="R6">
-        <v>1425.853189857008</v>
+        <v>1654.70071535835</v>
       </c>
       <c r="S6">
-        <v>0.06393189457206241</v>
+        <v>0.05724248162379329</v>
       </c>
       <c r="T6">
-        <v>0.06898789484784901</v>
+        <v>0.0606536718977195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.079388</v>
       </c>
       <c r="I7">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J7">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N7">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O7">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P7">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q7">
-        <v>22.65741636702445</v>
+        <v>23.36756656649333</v>
       </c>
       <c r="R7">
-        <v>203.91674730322</v>
+        <v>210.30809909844</v>
       </c>
       <c r="S7">
-        <v>0.009143146070581606</v>
+        <v>0.007275368522077553</v>
       </c>
       <c r="T7">
-        <v>0.009866224111109732</v>
+        <v>0.00770892181392897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.079388</v>
       </c>
       <c r="I8">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J8">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P8">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q8">
         <v>24.72319713783733</v>
@@ -948,10 +948,10 @@
         <v>222.508774240536</v>
       </c>
       <c r="S8">
-        <v>0.009976768714548641</v>
+        <v>0.007697436945773166</v>
       </c>
       <c r="T8">
-        <v>0.01076577310288816</v>
+        <v>0.008156142111914453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.079388</v>
       </c>
       <c r="I9">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J9">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N9">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O9">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P9">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q9">
-        <v>171.013008137748</v>
+        <v>230.955761658972</v>
       </c>
       <c r="R9">
-        <v>1539.117073239732</v>
+        <v>2078.601854930748</v>
       </c>
       <c r="S9">
-        <v>0.06901038000293125</v>
+        <v>0.0719068574635191</v>
       </c>
       <c r="T9">
-        <v>0.07446800804074369</v>
+        <v>0.07619192627692636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>6.079388</v>
       </c>
       <c r="I10">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J10">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N10">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O10">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P10">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q10">
-        <v>3.719721169672667</v>
+        <v>8.661414525815333</v>
       </c>
       <c r="R10">
-        <v>22.318327018036</v>
+        <v>51.968487154892</v>
       </c>
       <c r="S10">
-        <v>0.001501051728283101</v>
+        <v>0.002696685699748432</v>
       </c>
       <c r="T10">
-        <v>0.001079840763728686</v>
+        <v>0.001904924280056916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.079388</v>
       </c>
       <c r="I11">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J11">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N11">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O11">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P11">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q11">
-        <v>177.7322672609618</v>
+        <v>212.6348058512378</v>
       </c>
       <c r="R11">
-        <v>1599.590405348656</v>
+        <v>1913.71325266114</v>
       </c>
       <c r="S11">
-        <v>0.0717218616058842</v>
+        <v>0.06620272456638253</v>
       </c>
       <c r="T11">
-        <v>0.07739392489270788</v>
+        <v>0.07014787305998647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.997459000000001</v>
+        <v>4.488144</v>
       </c>
       <c r="H12">
-        <v>8.992377000000001</v>
+        <v>13.464432</v>
       </c>
       <c r="I12">
-        <v>0.2386669312099415</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J12">
-        <v>0.2567430776494193</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N12">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O12">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P12">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q12">
-        <v>33.51390465919501</v>
+        <v>51.75373097424</v>
       </c>
       <c r="R12">
-        <v>301.6251419327551</v>
+        <v>465.78357876816</v>
       </c>
       <c r="S12">
-        <v>0.01352416006886523</v>
+        <v>0.0161132509950761</v>
       </c>
       <c r="T12">
-        <v>0.01459370692799812</v>
+        <v>0.01707347080939122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.997459000000001</v>
+        <v>4.488144</v>
       </c>
       <c r="H13">
-        <v>8.992377000000001</v>
+        <v>13.464432</v>
       </c>
       <c r="I13">
-        <v>0.2386669312099415</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J13">
-        <v>0.2567430776494193</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P13">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q13">
-        <v>36.569521357866</v>
+        <v>54.75613773705599</v>
       </c>
       <c r="R13">
-        <v>329.125692220794</v>
+        <v>492.805239633504</v>
       </c>
       <c r="S13">
-        <v>0.01475721989171061</v>
+        <v>0.01704803449469757</v>
       </c>
       <c r="T13">
-        <v>0.01592428225302122</v>
+        <v>0.01806395986704723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.997459000000001</v>
+        <v>4.488144</v>
       </c>
       <c r="H14">
-        <v>8.992377000000001</v>
+        <v>13.464432</v>
       </c>
       <c r="I14">
-        <v>0.2386669312099415</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J14">
-        <v>0.2567430776494193</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N14">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O14">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P14">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q14">
-        <v>252.955304231067</v>
+        <v>511.513354282608</v>
       </c>
       <c r="R14">
-        <v>2276.597738079603</v>
+        <v>4603.620188543472</v>
       </c>
       <c r="S14">
-        <v>0.1020772738801371</v>
+        <v>0.1592569832113439</v>
       </c>
       <c r="T14">
-        <v>0.1101499694938699</v>
+        <v>0.1687474150859739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.997459000000001</v>
+        <v>4.488144</v>
       </c>
       <c r="H15">
-        <v>8.992377000000001</v>
+        <v>13.464432</v>
       </c>
       <c r="I15">
-        <v>0.2386669312099415</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J15">
-        <v>0.2567430776494193</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N15">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O15">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P15">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q15">
-        <v>5.502056307736501</v>
+        <v>19.183020874248</v>
       </c>
       <c r="R15">
-        <v>33.012337846419</v>
+        <v>115.098125245488</v>
       </c>
       <c r="S15">
-        <v>0.002220293068516635</v>
+        <v>0.005972532305823413</v>
       </c>
       <c r="T15">
-        <v>0.001597255389426744</v>
+        <v>0.004218964710588518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.997459000000001</v>
+        <v>4.488144</v>
       </c>
       <c r="H16">
-        <v>8.992377000000001</v>
+        <v>13.464432</v>
       </c>
       <c r="I16">
-        <v>0.2386669312099415</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J16">
-        <v>0.2567430776494193</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N16">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O16">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P16">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q16">
-        <v>262.8941518908361</v>
+        <v>470.93669366344</v>
       </c>
       <c r="R16">
-        <v>2366.047367017525</v>
+        <v>4238.43024297096</v>
       </c>
       <c r="S16">
-        <v>0.1060879843007119</v>
+        <v>0.1466236540814284</v>
       </c>
       <c r="T16">
-        <v>0.1144778635851033</v>
+        <v>0.1553612414211463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.6527075</v>
+        <v>1.981064</v>
       </c>
       <c r="H17">
-        <v>5.305415</v>
+        <v>3.962128</v>
       </c>
       <c r="I17">
-        <v>0.2112167533976597</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J17">
-        <v>0.1514759195824857</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N17">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O17">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P17">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q17">
-        <v>29.65931685595417</v>
+        <v>22.84406500744</v>
       </c>
       <c r="R17">
-        <v>177.955901135725</v>
+        <v>137.06439004464</v>
       </c>
       <c r="S17">
-        <v>0.01196868442433384</v>
+        <v>0.007112379074581707</v>
       </c>
       <c r="T17">
-        <v>0.008610145197582924</v>
+        <v>0.005024146339858348</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.6527075</v>
+        <v>1.981064</v>
       </c>
       <c r="H18">
-        <v>5.305415</v>
+        <v>3.962128</v>
       </c>
       <c r="I18">
-        <v>0.2112167533976597</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J18">
-        <v>0.1514759195824857</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P18">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q18">
-        <v>32.363493071105</v>
+        <v>24.169325505136</v>
       </c>
       <c r="R18">
-        <v>194.18095842663</v>
+        <v>145.015953030816</v>
       </c>
       <c r="S18">
-        <v>0.01305992438458371</v>
+        <v>0.007524991936132964</v>
       </c>
       <c r="T18">
-        <v>0.009395171702589045</v>
+        <v>0.005315613846919359</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.6527075</v>
+        <v>1.981064</v>
       </c>
       <c r="H19">
-        <v>5.305415</v>
+        <v>3.962128</v>
       </c>
       <c r="I19">
-        <v>0.2112167533976597</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J19">
-        <v>0.1514759195824857</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N19">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O19">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P19">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q19">
-        <v>223.8617551394475</v>
+        <v>225.781679841048</v>
       </c>
       <c r="R19">
-        <v>1343.170530836685</v>
+        <v>1354.690079046288</v>
       </c>
       <c r="S19">
-        <v>0.0903368986869858</v>
+        <v>0.07029593439706874</v>
       </c>
       <c r="T19">
-        <v>0.06498741104852697</v>
+        <v>0.04965667012464835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.6527075</v>
+        <v>1.981064</v>
       </c>
       <c r="H20">
-        <v>5.305415</v>
+        <v>3.962128</v>
       </c>
       <c r="I20">
-        <v>0.2112167533976597</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J20">
-        <v>0.1514759195824857</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N20">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O20">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P20">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q20">
-        <v>4.86923959025125</v>
+        <v>8.467373610388</v>
       </c>
       <c r="R20">
-        <v>19.476958361005</v>
+        <v>33.869494441552</v>
       </c>
       <c r="S20">
-        <v>0.00196492698484019</v>
+        <v>0.002636272084831447</v>
       </c>
       <c r="T20">
-        <v>0.0009423651501594613</v>
+        <v>0.001241498951521658</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.6527075</v>
+        <v>1.981064</v>
       </c>
       <c r="H21">
-        <v>5.305415</v>
+        <v>3.962128</v>
       </c>
       <c r="I21">
-        <v>0.2112167533976597</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J21">
-        <v>0.1514759195824857</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N21">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O21">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P21">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q21">
-        <v>232.6574903699967</v>
+        <v>207.8711668109733</v>
       </c>
       <c r="R21">
-        <v>1395.94494221998</v>
+        <v>1247.22700086584</v>
       </c>
       <c r="S21">
-        <v>0.09388631891691618</v>
+        <v>0.06471959069253815</v>
       </c>
       <c r="T21">
-        <v>0.06754082648362728</v>
+        <v>0.04571757091197635</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.076181333333333</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H22">
-        <v>9.228543999999999</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I22">
-        <v>0.2449350462081291</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J22">
-        <v>0.2634859268893066</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N22">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O22">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P22">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q22">
-        <v>34.39408109326222</v>
+        <v>31.83429600920667</v>
       </c>
       <c r="R22">
-        <v>309.54672983936</v>
+        <v>286.50866408286</v>
       </c>
       <c r="S22">
-        <v>0.01387934538983027</v>
+        <v>0.009911440048703257</v>
       </c>
       <c r="T22">
-        <v>0.01497698178225128</v>
+        <v>0.01050208194499529</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.076181333333333</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H23">
-        <v>9.228543999999999</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I23">
-        <v>0.2449350462081291</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J23">
-        <v>0.2634859268893066</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>36.600522</v>
       </c>
       <c r="O23">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P23">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q23">
-        <v>37.52994752221866</v>
+        <v>33.68110982974267</v>
       </c>
       <c r="R23">
-        <v>337.769527699968</v>
+        <v>303.129988467684</v>
       </c>
       <c r="S23">
-        <v>0.01514478909061826</v>
+        <v>0.01048643578468766</v>
       </c>
       <c r="T23">
-        <v>0.01634250203705043</v>
+        <v>0.01111134278980272</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.076181333333333</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H24">
-        <v>9.228543999999999</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I24">
-        <v>0.2449350462081291</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J24">
-        <v>0.2634859268893066</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N24">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O24">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P24">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q24">
-        <v>259.598675092224</v>
+        <v>314.637558034218</v>
       </c>
       <c r="R24">
-        <v>2336.388075830016</v>
+        <v>2831.738022307962</v>
       </c>
       <c r="S24">
-        <v>0.1047581316266985</v>
+        <v>0.09796074311254288</v>
       </c>
       <c r="T24">
-        <v>0.1130428406274376</v>
+        <v>0.1037984133995906</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.076181333333333</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H25">
-        <v>9.228543999999999</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I25">
-        <v>0.2449350462081291</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J25">
-        <v>0.2634859268893066</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N25">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O25">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P25">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q25">
-        <v>5.646556936661333</v>
+        <v>11.79968967194967</v>
       </c>
       <c r="R25">
-        <v>33.879341619968</v>
+        <v>70.798138031698</v>
       </c>
       <c r="S25">
-        <v>0.002278604675460201</v>
+        <v>0.003673771103435393</v>
       </c>
       <c r="T25">
-        <v>0.00163920414374996</v>
+        <v>0.002595132156097547</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.076181333333333</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H26">
-        <v>9.228543999999999</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I26">
-        <v>0.2449350462081291</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J26">
-        <v>0.2634859268893066</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N26">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O26">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P26">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q26">
-        <v>269.7985469322809</v>
+        <v>289.678402415879</v>
       </c>
       <c r="R26">
-        <v>2428.186922390528</v>
+        <v>2607.10562174291</v>
       </c>
       <c r="S26">
-        <v>0.1088741754255219</v>
+        <v>0.09018984173919764</v>
       </c>
       <c r="T26">
-        <v>0.1174843982988173</v>
+        <v>0.09556442897267314</v>
       </c>
     </row>
   </sheetData>
